--- a/biology/Histoire de la zoologie et de la botanique/Conrad_Moench/Conrad_Moench.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Conrad_Moench/Conrad_Moench.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conrad Moench est un botaniste allemand, né le 15 août 1744 à Cassel et mort le 6 janvier 1805 (à 60 ans).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il apprend la pharmacie chez son beau-père, le pharmacien August Johann Friedrich Rüde à Cassel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il apprend la pharmacie chez son beau-père, le pharmacien August Johann Friedrich Rüde à Cassel.
 Il est professeur de botanique à l’université de Marbourg de 1786 jusqu’à sa mort. Il est l’auteur de Methodus Plantas horti botanici et agri Marburgensis, catalogue des plantes des champs et des jardins de Marbourg. En 1802, il a nommé la plante Gillenia trifoliata dans un supplément à ce catalogue.
 Il s'est opposé, sans succès, tant à Carl von Linné qu'à Antoine-Laurent de Jussieu sur la classification des plantes.
 </t>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Supplementum ad Methodum plantas : a staminum situ describendi. - Marbourg - 1802 (Ouvrage numérisé)
 Arzneymittellehre der einfachen und zusammengesetzten gebräuchlichen Mittel. - Marbourg - 1800
@@ -582,7 +598,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre Moenchia de la famille des Amaryllidacées lui a été dédié par son ami Friedrich Kasimir Medikus. En outre, les espèces suivantes lui ont aussi été dédiées :
 Carex moenchiana Wender. - Cypéracée : voir Carex acuta var. moenchiana Nyman
